--- a/documentacion/vidaestudiantil/Subida a Educatico/ficha_educatico-AGENDAESTUDIANTL-SUBCATEGORIAS.xlsx
+++ b/documentacion/vidaestudiantil/Subida a Educatico/ficha_educatico-AGENDAESTUDIANTL-SUBCATEGORIAS.xlsx
@@ -321,7 +321,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="213">
   <si>
     <t>Título</t>
   </si>
@@ -823,9 +823,6 @@
   </si>
   <si>
     <t>Ciencias Sociales-Grupos Sociales</t>
-  </si>
-  <si>
-    <t>GESPRO SE ENCARGA DE TRÁMITARLA</t>
   </si>
   <si>
     <t>Todas</t>
@@ -1578,13 +1575,43 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1596,43 +1623,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1721,6 +1718,239 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>130968</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>607219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1383277</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1430840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22145624" y="1095375"/>
+          <a:ext cx="1252309" cy="823621"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1569698</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1004598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22228969" y="3047999"/>
+          <a:ext cx="1355385" cy="873630"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>229093</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1610169</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1012031</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22243749" y="4167187"/>
+          <a:ext cx="1381076" cy="869157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>110184</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>547687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1714054</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>449775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22124840" y="5679281"/>
+          <a:ext cx="1603870" cy="1009369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>71439</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>404814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12723</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22086095" y="7750970"/>
+          <a:ext cx="1655784" cy="1083468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>46925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>250031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>35267</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>285445</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22061581" y="12025312"/>
+          <a:ext cx="1702842" cy="1142696"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2012,19 +2242,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="I8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" style="29" hidden="1" customWidth="1"/>
-    <col min="3" max="7" width="25.7109375" style="29" hidden="1" customWidth="1"/>
-    <col min="8" max="10" width="20.7109375" style="29" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="20" style="29" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="29" customWidth="1"/>
+    <col min="3" max="7" width="25.7109375" style="29" customWidth="1"/>
+    <col min="8" max="10" width="20.7109375" style="29" customWidth="1"/>
+    <col min="11" max="11" width="20" style="29" customWidth="1"/>
     <col min="12" max="12" width="40.85546875" style="42" customWidth="1"/>
-    <col min="13" max="13" width="25.7109375" style="42" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="25.7109375" style="42" customWidth="1"/>
     <col min="14" max="14" width="25.7109375" style="29" customWidth="1"/>
     <col min="15" max="16" width="20.7109375" style="29" customWidth="1"/>
     <col min="17" max="17" width="25.7109375" style="33" customWidth="1"/>
@@ -2032,24 +2262,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
       <c r="Q1" s="32"/>
     </row>
     <row r="2" spans="1:18" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -2102,21 +2332,21 @@
         <v>6</v>
       </c>
       <c r="Q2" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>163</v>
@@ -2139,14 +2369,12 @@
       <c r="K3" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="L3" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>167</v>
-      </c>
+      <c r="L3" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="M3" s="37"/>
       <c r="N3" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -2155,16 +2383,16 @@
     </row>
     <row r="4" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4" s="41" t="s">
         <v>159</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>163</v>
@@ -2182,19 +2410,17 @@
         <v>164</v>
       </c>
       <c r="J4" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K4" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="L4" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="M4" s="37" t="s">
-        <v>167</v>
-      </c>
+      <c r="L4" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="M4" s="37"/>
       <c r="N4" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
@@ -2203,16 +2429,16 @@
     </row>
     <row r="5" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" s="41" t="s">
         <v>159</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>163</v>
@@ -2235,14 +2461,12 @@
       <c r="K5" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="L5" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="M5" s="37" t="s">
-        <v>167</v>
-      </c>
+      <c r="L5" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="M5" s="37"/>
       <c r="N5" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
@@ -2250,47 +2474,45 @@
       <c r="R5" s="6"/>
     </row>
     <row r="6" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="J6" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="L6" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="H6" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="I6" s="43" t="s">
-        <v>205</v>
-      </c>
-      <c r="J6" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="K6" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="L6" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="M6" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="N6" s="59" t="s">
-        <v>213</v>
+      <c r="M6" s="59"/>
+      <c r="N6" s="47" t="s">
+        <v>212</v>
       </c>
       <c r="O6" s="41"/>
       <c r="P6" s="41"/>
@@ -2298,71 +2520,69 @@
       <c r="R6" s="6"/>
     </row>
     <row r="7" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
-      <c r="B7" s="54" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="50" t="s">
+      <c r="A7" s="54"/>
+      <c r="B7" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="M7" s="56"/>
-      <c r="N7" s="60"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="M7" s="61"/>
+      <c r="N7" s="48"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="39"/>
       <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="D8" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="E8" s="43" t="s">
+      <c r="D8" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="I8" s="43" t="s">
-        <v>205</v>
-      </c>
-      <c r="J8" s="43" t="s">
+      <c r="I8" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="J8" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="K8" s="43" t="s">
+      <c r="K8" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="L8" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="M8" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="N8" s="59" t="s">
-        <v>212</v>
+      <c r="L8" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="M8" s="59"/>
+      <c r="N8" s="47" t="s">
+        <v>211</v>
       </c>
       <c r="O8" s="41"/>
       <c r="P8" s="41"/>
@@ -2370,69 +2590,67 @@
       <c r="R8" s="6"/>
     </row>
     <row r="9" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="M9" s="56"/>
-      <c r="N9" s="60"/>
+        <v>186</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="M9" s="61"/>
+      <c r="N9" s="48"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="40"/>
       <c r="R9" s="6"/>
     </row>
     <row r="10" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="51" t="s">
-        <v>188</v>
+      <c r="A10" s="53" t="s">
+        <v>187</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="C10" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="D10" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="E10" s="43" t="s">
+      <c r="D10" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="H10" s="43" t="s">
+      <c r="H10" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="I10" s="43" t="s">
-        <v>205</v>
-      </c>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43" t="s">
+      <c r="I10" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="L10" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="M10" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="N10" s="59" t="s">
-        <v>211</v>
+      <c r="L10" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="M10" s="59"/>
+      <c r="N10" s="47" t="s">
+        <v>210</v>
       </c>
       <c r="O10" s="41"/>
       <c r="P10" s="41"/>
@@ -2440,168 +2658,168 @@
       <c r="R10" s="6"/>
     </row>
     <row r="11" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="M11" s="58"/>
-      <c r="N11" s="61"/>
+        <v>197</v>
+      </c>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="M11" s="60"/>
+      <c r="N11" s="49"/>
       <c r="O11" s="41"/>
       <c r="P11" s="41"/>
       <c r="Q11" s="40"/>
       <c r="R11" s="6"/>
     </row>
     <row r="12" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="M12" s="58"/>
-      <c r="N12" s="61"/>
+        <v>198</v>
+      </c>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="M12" s="60"/>
+      <c r="N12" s="49"/>
       <c r="O12" s="41"/>
       <c r="P12" s="41"/>
       <c r="Q12" s="40"/>
       <c r="R12" s="6"/>
     </row>
     <row r="13" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="M13" s="58"/>
-      <c r="N13" s="61"/>
+        <v>199</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="M13" s="60"/>
+      <c r="N13" s="49"/>
       <c r="O13" s="41"/>
       <c r="P13" s="41"/>
       <c r="Q13" s="40"/>
       <c r="R13" s="6"/>
     </row>
     <row r="14" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="M14" s="58"/>
-      <c r="N14" s="61"/>
+        <v>200</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="M14" s="60"/>
+      <c r="N14" s="49"/>
       <c r="O14" s="41"/>
       <c r="P14" s="41"/>
       <c r="Q14" s="40"/>
       <c r="R14" s="6"/>
     </row>
     <row r="15" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="M15" s="58"/>
-      <c r="N15" s="61"/>
+        <v>201</v>
+      </c>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="M15" s="60"/>
+      <c r="N15" s="49"/>
       <c r="O15" s="41"/>
       <c r="P15" s="41"/>
       <c r="Q15" s="40"/>
       <c r="R15" s="6"/>
     </row>
     <row r="16" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="57"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="M16" s="58"/>
-      <c r="N16" s="61"/>
+        <v>202</v>
+      </c>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="M16" s="60"/>
+      <c r="N16" s="49"/>
       <c r="O16" s="41"/>
       <c r="P16" s="41"/>
       <c r="Q16" s="40"/>
       <c r="R16" s="6"/>
     </row>
     <row r="17" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="50" t="s">
-        <v>189</v>
-      </c>
-      <c r="M17" s="56"/>
-      <c r="N17" s="60"/>
+        <v>203</v>
+      </c>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="M17" s="61"/>
+      <c r="N17" s="48"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="40"/>
@@ -2609,30 +2827,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N10:N17"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="D10:D17"/>
-    <mergeCell ref="E10:E17"/>
-    <mergeCell ref="F10:F17"/>
-    <mergeCell ref="G10:G17"/>
-    <mergeCell ref="H10:H17"/>
-    <mergeCell ref="I10:I17"/>
-    <mergeCell ref="J10:J17"/>
-    <mergeCell ref="K10:K17"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="C10:C17"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
@@ -2641,10 +2835,34 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="D10:D17"/>
+    <mergeCell ref="E10:E17"/>
+    <mergeCell ref="F10:F17"/>
+    <mergeCell ref="G10:G17"/>
+    <mergeCell ref="H10:H17"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N10:N17"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="I10:I17"/>
+    <mergeCell ref="J10:J17"/>
+    <mergeCell ref="K10:K17"/>
     <mergeCell ref="M10:M17"/>
-    <mergeCell ref="M6:M7"/>
     <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K6:K7"/>
     <mergeCell ref="N8:N9"/>
   </mergeCells>
   <hyperlinks>
@@ -2670,7 +2888,8 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Predeterminado"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Predeterminado"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId17"/>
+  <drawing r:id="rId17"/>
+  <legacyDrawing r:id="rId18"/>
 </worksheet>
 </file>
 

--- a/documentacion/vidaestudiantil/Subida a Educatico/ficha_educatico-AGENDAESTUDIANTL-SUBCATEGORIAS.xlsx
+++ b/documentacion/vidaestudiantil/Subida a Educatico/ficha_educatico-AGENDAESTUDIANTL-SUBCATEGORIAS.xlsx
@@ -13,13 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
-    <sheet name="materia" sheetId="4" r:id="rId2"/>
-    <sheet name="nivel" sheetId="6" r:id="rId3"/>
-    <sheet name="usuario" sheetId="7" r:id="rId4"/>
-    <sheet name="derechos de uso" sheetId="9" r:id="rId5"/>
-    <sheet name="tipo de contenido (TC)" sheetId="5" r:id="rId6"/>
-    <sheet name="tipo de recurso" sheetId="2" r:id="rId7"/>
-    <sheet name="tematica" sheetId="3" r:id="rId8"/>
+    <sheet name="Hoja2" sheetId="11" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="10" r:id="rId3"/>
+    <sheet name="materia" sheetId="4" r:id="rId4"/>
+    <sheet name="nivel" sheetId="6" r:id="rId5"/>
+    <sheet name="usuario" sheetId="7" r:id="rId6"/>
+    <sheet name="derechos de uso" sheetId="9" r:id="rId7"/>
+    <sheet name="tipo de contenido (TC)" sheetId="5" r:id="rId8"/>
+    <sheet name="tipo de recurso" sheetId="2" r:id="rId9"/>
+    <sheet name="tematica" sheetId="3" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -321,7 +323,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="218">
   <si>
     <t>Título</t>
   </si>
@@ -1198,6 +1200,21 @@
   </si>
   <si>
     <t>Educar para la sostenibilidad, sostenibilidad, desarrollo sostenible, medio ambiente, gestión de Riesgos, situaciones de riesgo, prevención</t>
+  </si>
+  <si>
+    <t> https://www.mep.go.cr/educatico/educar-sostenibilidad-conservacion-biodiversidad</t>
+  </si>
+  <si>
+    <t>https://www.mep.go.cr/educatico/educar-sostenibilidad-gestion-riesgos</t>
+  </si>
+  <si>
+    <t>https://www.mep.go.cr/educatico/educar-sostenibilidad-seguridad-alimentaria-nutricional</t>
+  </si>
+  <si>
+    <t>https://www.mep.go.cr/educatico/educar-sostenibilidad-gestion-residuos</t>
+  </si>
+  <si>
+    <t>https://www.mep.go.cr/educatico/educar-sostenibilidad-consumo-produccion-sostenible</t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1342,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1437,6 +1454,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1447,7 +1495,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1560,15 +1608,6 @@
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1587,14 +1626,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1602,34 +1641,61 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1882,7 +1948,7 @@
       <xdr:rowOff>404814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>12723</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>381000</xdr:rowOff>
@@ -1914,16 +1980,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>46925</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>250031</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3023488</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>145256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>35267</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>285445</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1702142</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>144952</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1940,7 +2006,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22061581" y="12025312"/>
+          <a:off x="3023488" y="9705975"/>
           <a:ext cx="1702842" cy="1142696"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2240,46 +2306,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10:N17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" style="29" customWidth="1"/>
-    <col min="3" max="7" width="25.7109375" style="29" customWidth="1"/>
-    <col min="8" max="10" width="20.7109375" style="29" customWidth="1"/>
-    <col min="11" max="11" width="20" style="29" customWidth="1"/>
-    <col min="12" max="12" width="40.85546875" style="42" customWidth="1"/>
-    <col min="13" max="13" width="25.7109375" style="42" customWidth="1"/>
-    <col min="14" max="14" width="25.7109375" style="29" customWidth="1"/>
-    <col min="15" max="16" width="20.7109375" style="29" customWidth="1"/>
-    <col min="17" max="17" width="25.7109375" style="33" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="29" hidden="1" customWidth="1"/>
+    <col min="3" max="7" width="25.7109375" style="29" hidden="1" customWidth="1"/>
+    <col min="8" max="10" width="20.7109375" style="29" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="20" style="29" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="40.85546875" style="39" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="25.7109375" style="39" customWidth="1"/>
+    <col min="14" max="14" width="25.7109375" style="29" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="20.7109375" style="29" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="37.85546875" style="33" customWidth="1"/>
     <col min="18" max="16384" width="11.42578125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
       <c r="Q1" s="32"/>
     </row>
     <row r="2" spans="1:18" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -2319,19 +2385,19 @@
       <c r="L2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="27" t="s">
         <v>4</v>
       </c>
       <c r="P2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="63" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2369,16 +2435,18 @@
       <c r="K3" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="40" t="s">
         <v>171</v>
       </c>
       <c r="M3" s="37"/>
       <c r="N3" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="39"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="53" t="s">
+        <v>216</v>
+      </c>
       <c r="R3" s="34"/>
     </row>
     <row r="4" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.2">
@@ -2388,10 +2456,10 @@
       <c r="B4" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="38" t="s">
         <v>167</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -2415,16 +2483,18 @@
       <c r="K4" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="41" t="s">
         <v>173</v>
       </c>
       <c r="M4" s="37"/>
       <c r="N4" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="40"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="64" t="s">
+        <v>217</v>
+      </c>
       <c r="R4" s="34"/>
     </row>
     <row r="5" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.2">
@@ -2434,10 +2504,10 @@
       <c r="B5" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="38" t="s">
         <v>167</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -2461,205 +2531,213 @@
       <c r="K5" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="L5" s="41" t="s">
         <v>175</v>
       </c>
       <c r="M5" s="37"/>
       <c r="N5" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="39"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="53" t="s">
+        <v>175</v>
+      </c>
       <c r="R5" s="6"/>
     </row>
     <row r="6" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="K6" s="50" t="s">
+      <c r="K6" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="L6" s="44" t="s">
+      <c r="L6" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="M6" s="59"/>
-      <c r="N6" s="47" t="s">
+      <c r="M6" s="65"/>
+      <c r="N6" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="39"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="67" t="s">
+        <v>214</v>
+      </c>
       <c r="R6" s="6"/>
     </row>
     <row r="7" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="50"/>
+      <c r="B7" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="44" t="s">
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="M7" s="61"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="39"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="67"/>
       <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="K8" s="50" t="s">
+      <c r="K8" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="L8" s="44" t="s">
+      <c r="L8" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="M8" s="59"/>
-      <c r="N8" s="47" t="s">
+      <c r="M8" s="65"/>
+      <c r="N8" s="66" t="s">
         <v>211</v>
       </c>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="40"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="67" t="s">
+        <v>215</v>
+      </c>
       <c r="R8" s="6"/>
     </row>
     <row r="9" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="44" t="s">
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="M9" s="61"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="40"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="67"/>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="H10" s="50" t="s">
+      <c r="H10" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50" t="s">
+      <c r="J10" s="47"/>
+      <c r="K10" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="L10" s="44" t="s">
+      <c r="L10" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="M10" s="59"/>
-      <c r="N10" s="47" t="s">
+      <c r="M10" s="65"/>
+      <c r="N10" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="40"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="67" t="s">
+        <v>213</v>
+      </c>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
-      <c r="B11" s="41" t="s">
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="51"/>
+      <c r="B11" s="38" t="s">
         <v>197</v>
       </c>
       <c r="C11" s="52"/>
@@ -2671,19 +2749,19 @@
       <c r="I11" s="52"/>
       <c r="J11" s="52"/>
       <c r="K11" s="52"/>
-      <c r="L11" s="44" t="s">
+      <c r="L11" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="M11" s="60"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="40"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="67"/>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
-      <c r="B12" s="41" t="s">
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="51"/>
+      <c r="B12" s="38" t="s">
         <v>198</v>
       </c>
       <c r="C12" s="52"/>
@@ -2695,19 +2773,19 @@
       <c r="I12" s="52"/>
       <c r="J12" s="52"/>
       <c r="K12" s="52"/>
-      <c r="L12" s="44" t="s">
+      <c r="L12" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="M12" s="60"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="40"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="67"/>
       <c r="R12" s="6"/>
     </row>
-    <row r="13" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
-      <c r="B13" s="41" t="s">
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="51"/>
+      <c r="B13" s="38" t="s">
         <v>199</v>
       </c>
       <c r="C13" s="52"/>
@@ -2719,19 +2797,19 @@
       <c r="I13" s="52"/>
       <c r="J13" s="52"/>
       <c r="K13" s="52"/>
-      <c r="L13" s="44" t="s">
+      <c r="L13" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="M13" s="60"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="40"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="67"/>
       <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="55"/>
-      <c r="B14" s="41" t="s">
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="51"/>
+      <c r="B14" s="38" t="s">
         <v>200</v>
       </c>
       <c r="C14" s="52"/>
@@ -2743,19 +2821,19 @@
       <c r="I14" s="52"/>
       <c r="J14" s="52"/>
       <c r="K14" s="52"/>
-      <c r="L14" s="44" t="s">
+      <c r="L14" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="M14" s="60"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="40"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="67"/>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="55"/>
-      <c r="B15" s="41" t="s">
+    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="51"/>
+      <c r="B15" s="38" t="s">
         <v>201</v>
       </c>
       <c r="C15" s="52"/>
@@ -2767,19 +2845,19 @@
       <c r="I15" s="52"/>
       <c r="J15" s="52"/>
       <c r="K15" s="52"/>
-      <c r="L15" s="44" t="s">
+      <c r="L15" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="M15" s="60"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="40"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="67"/>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="55"/>
-      <c r="B16" s="41" t="s">
+    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="51"/>
+      <c r="B16" s="38" t="s">
         <v>202</v>
       </c>
       <c r="C16" s="52"/>
@@ -2791,42 +2869,75 @@
       <c r="I16" s="52"/>
       <c r="J16" s="52"/>
       <c r="K16" s="52"/>
-      <c r="L16" s="44" t="s">
+      <c r="L16" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="M16" s="60"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="40"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="67"/>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
+    <row r="17" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="50"/>
       <c r="B17" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="44" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="M17" s="61"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="40"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="67"/>
       <c r="R17" s="6"/>
     </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+    </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="40">
+    <mergeCell ref="Q10:Q17"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="N10:N17"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="I10:I17"/>
+    <mergeCell ref="J10:J17"/>
+    <mergeCell ref="K10:K17"/>
+    <mergeCell ref="M10:M17"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="D10:D17"/>
+    <mergeCell ref="E10:E17"/>
+    <mergeCell ref="F10:F17"/>
+    <mergeCell ref="G10:G17"/>
+    <mergeCell ref="H10:H17"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
@@ -2839,31 +2950,7 @@
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="D10:D17"/>
-    <mergeCell ref="E10:E17"/>
-    <mergeCell ref="F10:F17"/>
-    <mergeCell ref="G10:G17"/>
-    <mergeCell ref="H10:H17"/>
     <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N10:N17"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="I10:I17"/>
-    <mergeCell ref="J10:J17"/>
-    <mergeCell ref="K10:K17"/>
-    <mergeCell ref="M10:M17"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L3" r:id="rId1"/>
@@ -2881,19 +2968,200 @@
     <hyperlink ref="L16" r:id="rId13"/>
     <hyperlink ref="L15" r:id="rId14"/>
     <hyperlink ref="L9" r:id="rId15"/>
+    <hyperlink ref="Q10" r:id="rId16" display="https://www.mep.go.cr/educatico/educar-sostenibilidad-conservacion-biodiversidad"/>
+    <hyperlink ref="Q6" r:id="rId17"/>
+    <hyperlink ref="Q8" r:id="rId18"/>
+    <hyperlink ref="Q3" r:id="rId19"/>
+    <hyperlink ref="Q4" r:id="rId20"/>
+    <hyperlink ref="Q5" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId22"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Predeterminado"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Predeterminado"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId17"/>
-  <legacyDrawing r:id="rId18"/>
+  <drawing r:id="rId23"/>
+  <legacyDrawing r:id="rId24"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="102.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="77.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="55" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="61" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="61" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="62" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="62"/>
+    </row>
+    <row r="8" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="62"/>
+    </row>
+    <row r="9" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="60"/>
+    </row>
+    <row r="10" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="60"/>
+    </row>
+    <row r="11" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="60"/>
+    </row>
+    <row r="12" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="60"/>
+    </row>
+    <row r="13" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="60"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1" display="https://www.mep.go.cr/educatico/educar-sostenibilidad-conservacion-biodiversidad"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A1" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId5"/>
+    <hyperlink ref="A3" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="71.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="55" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="56" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="57"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="56" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="58"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A6" r:id="rId2"/>
+    <hyperlink ref="A1" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A3" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A24"/>
   <sheetViews>
@@ -3033,7 +3301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -3088,7 +3356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -3134,7 +3402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -3166,7 +3434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -3295,7 +3563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -3689,38 +3957,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="102.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>